--- a/biology/Zoologie/Iphisa_elegans/Iphisa_elegans.xlsx
+++ b/biology/Zoologie/Iphisa_elegans/Iphisa_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iphisa elegans, unique représentant du genre Iphisa, est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iphisa elegans, unique représentant du genre Iphisa, est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, en Équateur, au Pérou, en Bolivie, au Guyana, au Surinam, en Guyane et au Brésil en Amazonas, au Pará, en Amapá, au Rondônia et au Mato Grosso[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, en Équateur, au Pérou, en Bolivie, au Guyana, au Surinam, en Guyane et au Brésil en Amazonas, au Pará, en Amapá, au Rondônia et au Mato Grosso.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iphisa elegans[1] mesure jusqu'à 62 mm, queue non comprise. C'est un ovipare diurne.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iphisa elegans mesure jusqu'à 62 mm, queue non comprise. C'est un ovipare diurne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 novembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 novembre 2012) :
 Iphisa elegans elegans Gray, 1851
 Iphisa elegans soinii Dixon, 1974</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce serait en fait un complexe d'espèces cryptiques[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce serait en fait un complexe d'espèces cryptiques.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dixon, 1974 : Systematic review of the lizard genus Anotosaura (Teiidae). Herpetologica, vol. 30, p. 13-18.
 Gray, 1851 : Description of a new genus and family of cyclosaurian lizards from Para. Proceedings of the Zoological Society of London, vol. 1851, p. 38-39 (texte intégral).</t>
